--- a/public/sample_uploads/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/capital_remittance_payments.xlsx
@@ -333,7 +333,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -536,32 +536,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,20 +755,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.69"/>
@@ -986,9 +982,6 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O36" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
